--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -513,8 +513,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -545,19 +547,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -867,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -878,7 +882,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I12" sqref="A1:L34"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,38 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2480B8F9-F425-2745-85DA-FA1C8EC850E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="560" windowWidth="27280" windowHeight="16540"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
   <si>
     <t>Common Name</t>
   </si>
@@ -398,12 +396,15 @@
   </si>
   <si>
     <t>FlaviPesti</t>
+  </si>
+  <si>
+    <t>genus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -625,7 +626,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -677,7 +678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -871,21 +872,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="4" width="24.33203125" customWidth="1"/>
@@ -898,7 +899,7 @@
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -912,7 +913,7 @@
         <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>120</v>
@@ -936,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -972,7 +973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -1110,7 +1111,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -1180,7 +1181,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>86</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -1248,7 +1249,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>90</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>91</v>
       </c>
@@ -1318,7 +1319,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
@@ -1352,7 +1353,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>93</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -1422,7 +1423,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>95</v>
       </c>
@@ -1456,7 +1457,7 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>96</v>
       </c>
@@ -1490,7 +1491,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>97</v>
       </c>
@@ -1524,7 +1525,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>99</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>101</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>102</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>103</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>104</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>105</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>106</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
@@ -1888,7 +1889,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>108</v>
       </c>
@@ -1920,7 +1921,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>109</v>
       </c>
@@ -1954,7 +1955,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>110</v>
       </c>
@@ -1988,7 +1989,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>115</v>
       </c>
@@ -2019,7 +2020,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M33">
     <sortCondition ref="E2:E33"/>
     <sortCondition ref="F2:F33"/>
     <sortCondition ref="G2:G33"/>
@@ -2036,14 +2037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2055,16 +2056,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:5">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D33DEEC-90D1-7B4B-8AE9-C9C4CDF2044E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060B125-B163-1B42-8791-A59063C04914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19740" yWindow="4360" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="155">
   <si>
     <t>In project?</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Flavivirus</t>
   </si>
   <si>
-    <t>Pestivirus</t>
-  </si>
-  <si>
     <t>Craspedacusta sowerbii</t>
   </si>
   <si>
@@ -492,6 +489,12 @@
   </si>
   <si>
     <t>EFV-X2.2-AusLim-con</t>
+  </si>
+  <si>
+    <t>Tamanavirus</t>
+  </si>
+  <si>
+    <t>Bee</t>
   </si>
 </sst>
 </file>
@@ -986,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="J28" sqref="A1:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,69 +1011,69 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>60</v>
@@ -1082,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
@@ -1091,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="10">
         <v>10</v>
@@ -1100,27 +1103,27 @@
         <v>59</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>60</v>
@@ -1132,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>5</v>
@@ -1141,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="10">
         <v>16</v>
@@ -1150,27 +1153,27 @@
         <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>60</v>
@@ -1182,43 +1185,43 @@
         <v>3</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="10">
         <v>1</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>60</v>
@@ -1230,43 +1233,43 @@
         <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" s="10">
         <v>1</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>60</v>
@@ -1278,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -1287,34 +1290,34 @@
         <v>6</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="10">
         <v>4</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>60</v>
@@ -1326,45 +1329,45 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="10">
         <v>1</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>60</v>
@@ -1376,43 +1379,43 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="10">
         <v>7</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>60</v>
@@ -1424,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>9</v>
@@ -1433,34 +1436,34 @@
         <v>8</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="10">
         <v>2</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>60</v>
@@ -1472,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>12</v>
@@ -1481,37 +1484,37 @@
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" s="10">
         <v>3</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>17</v>
@@ -1520,48 +1523,48 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="10">
         <v>1</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>17</v>
@@ -1570,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>16</v>
@@ -1579,37 +1582,37 @@
         <v>15</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" s="10">
         <v>2</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>17</v>
@@ -1618,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>19</v>
@@ -1627,37 +1630,37 @@
         <v>18</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" s="10">
         <v>2</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>17</v>
@@ -1666,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>21</v>
@@ -1675,39 +1678,39 @@
         <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" s="10">
         <v>1</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>24</v>
@@ -1716,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>23</v>
@@ -1725,37 +1728,37 @@
         <v>22</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M15" s="10">
         <v>2</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>27</v>
@@ -1764,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>29</v>
@@ -1773,37 +1776,37 @@
         <v>28</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M16" s="10">
         <v>6</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>27</v>
@@ -1812,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>26</v>
@@ -1821,37 +1824,37 @@
         <v>25</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M17" s="10">
         <v>4</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>27</v>
@@ -1860,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>21</v>
@@ -1869,46 +1872,46 @@
         <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M18" s="10">
         <v>1</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>31</v>
@@ -1917,42 +1920,42 @@
         <v>30</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H20" s="10">
         <v>2</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>34</v>
@@ -1961,42 +1964,42 @@
         <v>33</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H21" s="10">
         <v>3</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>36</v>
@@ -2005,42 +2008,42 @@
         <v>35</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H22" s="10">
         <v>3</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>38</v>
@@ -2049,42 +2052,42 @@
         <v>37</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>40</v>
@@ -2093,42 +2096,42 @@
         <v>39</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H24" s="10">
         <v>3</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>42</v>
@@ -2137,42 +2140,42 @@
         <v>41</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H25" s="10">
         <v>3</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>44</v>
@@ -2181,42 +2184,42 @@
         <v>43</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H26" s="10">
         <v>3</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>46</v>
@@ -2225,42 +2228,42 @@
         <v>45</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H27" s="10">
         <v>3</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>48</v>
@@ -2269,42 +2272,42 @@
         <v>47</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H28" s="10">
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>50</v>
@@ -2313,42 +2316,42 @@
         <v>49</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H29" s="10">
         <v>3</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>52</v>
@@ -2357,42 +2360,42 @@
         <v>51</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H30" s="10">
         <v>4</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>54</v>
@@ -2401,92 +2404,92 @@
         <v>53</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M30" s="10">
         <v>2</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H31" s="10">
         <v>5</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="13"/>
       <c r="O31" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H32" s="10">
         <v>6</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>56</v>
@@ -2495,46 +2498,46 @@
         <v>55</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M32" s="10">
         <v>16</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H33" s="10">
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>58</v>
@@ -2543,205 +2546,205 @@
         <v>57</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M33" s="10">
         <v>2</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H34" s="10">
         <v>1</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="L34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M34" s="10">
         <v>1</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M35" s="10">
         <v>2</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="10">
         <v>2</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M36" s="10">
         <v>1</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H37" s="10">
         <v>1</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M37" s="10">
         <v>1</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060B125-B163-1B42-8791-A59063C04914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992BB65-12EF-6D49-A003-A90C2F15E876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="4360" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="J28" sqref="A1:P37"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992BB65-12EF-6D49-A003-A90C2F15E876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F291DAA-B346-2D41-940D-2F09FBC51BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F291DAA-B346-2D41-940D-2F09FBC51BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298E4B9D-DDC8-6746-8FBA-072C82C5A2EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298E4B9D-DDC8-6746-8FBA-072C82C5A2EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD696B-72CD-7D40-9781-E6DF09B74D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="460" windowWidth="33580" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="156">
   <si>
     <t>In project?</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Bee</t>
+  </si>
+  <si>
+    <t>EFV-PL2.8-EusHer</t>
   </si>
 </sst>
 </file>
@@ -511,9 +514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,7 +523,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,12 +568,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,24 +575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,33 +605,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -987,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,13 +968,13 @@
     <col min="2" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" customWidth="1"/>
     <col min="11" max="11" width="30.5" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="16" style="11" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="16" style="6" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1031,10 +1000,10 @@
       <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1046,10 +1015,10 @@
       <c r="L1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1060,1690 +1029,1766 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="7">
         <v>10</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>1</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="7">
         <v>4</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="7">
         <v>1</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="O7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="7">
         <v>7</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="7">
         <v>2</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="N9" s="7"/>
+      <c r="O9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="7">
         <v>3</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="N10" s="7"/>
+      <c r="O10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="O11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="7">
         <v>2</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P12" s="3" t="s">
+      <c r="N12" s="7"/>
+      <c r="O12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="7">
         <v>2</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>4</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="7">
         <v>1</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="7">
         <v>2</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="N15" s="7"/>
+      <c r="O15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="7">
         <v>6</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="N16" s="7"/>
+      <c r="O16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="7">
         <v>4</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="N17" s="7"/>
+      <c r="O17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="7">
         <v>1</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="N18" s="7"/>
+      <c r="O18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="3" t="s">
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P20" s="3" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="7">
         <v>3</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="7">
         <v>3</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P23" s="3" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P25" s="3" t="s">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P26" s="3" t="s">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="7">
         <v>3</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P27" s="3" t="s">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="7">
         <v>3</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P28" s="3" t="s">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="7">
         <v>3</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="7">
         <v>4</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="I30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="7">
         <v>2</v>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P30" s="3" t="s">
+      <c r="N30" s="7"/>
+      <c r="O30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="7">
         <v>5</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="I31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P31" s="3" t="s">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="7">
         <v>6</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="7">
         <v>16</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P32" s="3" t="s">
+      <c r="N32" s="7"/>
+      <c r="O32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="7">
         <v>7</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="I33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="7">
         <v>2</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P33" s="3" t="s">
+      <c r="N33" s="7"/>
+      <c r="O33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="7">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M35" s="7">
         <v>1</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="N35" s="7"/>
+      <c r="O35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="E36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="7">
         <v>1</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M36" s="7">
         <v>2</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="N36" s="7"/>
+      <c r="O36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="7">
         <v>2</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M37" s="7">
         <v>1</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="N37" s="7"/>
+      <c r="O37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="E38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="7">
         <v>1</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M38" s="7">
         <v>1</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P37" s="3" t="s">
+      <c r="N38" s="7"/>
+      <c r="O38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2794,123 +2839,123 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>1</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>13</v>
       </c>
     </row>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD696B-72CD-7D40-9781-E6DF09B74D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B6CB5-C082-DD48-A791-C5EE2C7C67F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="460" windowWidth="33580" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="158">
   <si>
     <t>In project?</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>EFV-PL2.8-EusHer</t>
+  </si>
+  <si>
+    <t>JMTV1</t>
+  </si>
+  <si>
+    <t>JMTV3</t>
   </si>
 </sst>
 </file>
@@ -958,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:P30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A33" sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2665,7 +2671,7 @@
         <v>114</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>131</v>
@@ -2713,7 +2719,7 @@
         <v>114</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>131</v>
@@ -2761,7 +2767,7 @@
         <v>114</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>131</v>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B6CB5-C082-DD48-A791-C5EE2C7C67F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB46FF1-DC67-7B49-ACA1-0DBBB70ED303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13400" yWindow="5020" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>Craspedacusta sowerbii</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Anopheles minimus**</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>JMTV3</t>
+  </si>
+  <si>
+    <t>locus_numeric_id</t>
   </si>
 </sst>
 </file>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A33" sqref="A1:P38"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,7 +974,7 @@
     <col min="2" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22" style="6" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" customWidth="1"/>
     <col min="11" max="11" width="30.5" customWidth="1"/>
@@ -986,69 +986,69 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>60</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="7">
         <v>10</v>
@@ -1078,27 +1078,27 @@
         <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>60</v>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="7">
         <v>16</v>
@@ -1128,27 +1128,27 @@
         <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>60</v>
@@ -1160,43 +1160,43 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>60</v>
@@ -1208,43 +1208,43 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>60</v>
@@ -1256,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
@@ -1265,34 +1265,34 @@
         <v>6</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
@@ -1304,45 +1304,45 @@
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>60</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>61</v>
@@ -1363,34 +1363,34 @@
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>60</v>
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
@@ -1411,34 +1411,34 @@
         <v>8</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
@@ -1459,37 +1459,37 @@
         <v>11</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
@@ -1498,48 +1498,48 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
@@ -1557,37 +1557,37 @@
         <v>15</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>17</v>
@@ -1596,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1605,37 +1605,37 @@
         <v>18</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
@@ -1644,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>21</v>
@@ -1653,36 +1653,36 @@
         <v>20</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>23</v>
@@ -1703,34 +1703,34 @@
         <v>22</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1751,34 +1751,34 @@
         <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>27</v>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -1799,34 +1799,34 @@
         <v>25</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>27</v>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>21</v>
@@ -1847,46 +1847,46 @@
         <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>31</v>
@@ -1895,44 +1895,44 @@
         <v>30</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>34</v>
@@ -1941,46 +1941,46 @@
         <v>33</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>36</v>
@@ -1989,44 +1989,44 @@
         <v>35</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>38</v>
@@ -2035,44 +2035,44 @@
         <v>37</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>40</v>
@@ -2081,44 +2081,44 @@
         <v>39</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>42</v>
@@ -2127,44 +2127,44 @@
         <v>41</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>44</v>
@@ -2173,44 +2173,44 @@
         <v>43</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>46</v>
@@ -2219,44 +2219,44 @@
         <v>45</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>48</v>
@@ -2265,44 +2265,44 @@
         <v>47</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>50</v>
@@ -2311,44 +2311,44 @@
         <v>49</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>52</v>
@@ -2357,44 +2357,44 @@
         <v>51</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>54</v>
@@ -2403,92 +2403,92 @@
         <v>53</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="L31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>56</v>
@@ -2497,46 +2497,46 @@
         <v>55</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>58</v>
@@ -2545,46 +2545,46 @@
         <v>57</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>34</v>
@@ -2593,209 +2593,209 @@
         <v>33</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="L35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB46FF1-DC67-7B49-ACA1-0DBBB70ED303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BA080-2B3D-074A-A351-832A9A409830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="5020" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="157">
   <si>
     <t>In project?</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>Gerris buenoi</t>
-  </si>
-  <si>
-    <t>EJH-Jingmen.2-GerBue</t>
   </si>
   <si>
     <t>EJP-Jingmen.2-GerBue</t>
@@ -965,7 +962,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A31" sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,10 +986,10 @@
         <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>110</v>
@@ -1007,31 +1004,31 @@
         <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1060,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -1078,10 +1075,10 @@
         <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1110,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
@@ -1128,10 +1125,10 @@
         <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1160,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>62</v>
@@ -1176,10 +1173,10 @@
         <v>64</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1208,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
@@ -1224,10 +1221,10 @@
         <v>64</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1256,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
@@ -1272,10 +1269,10 @@
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1304,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>70</v>
@@ -1322,10 +1319,10 @@
         <v>64</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1354,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>61</v>
@@ -1370,10 +1367,10 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1402,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
@@ -1418,10 +1415,10 @@
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1450,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
@@ -1466,10 +1463,10 @@
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1489,7 +1486,7 @@
         <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
@@ -1498,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>67</v>
@@ -1516,10 +1513,10 @@
         <v>64</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1539,7 +1536,7 @@
         <v>113</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
@@ -1548,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
@@ -1564,10 +1561,10 @@
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1587,7 +1584,7 @@
         <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>17</v>
@@ -1596,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1612,10 +1609,10 @@
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1635,7 +1632,7 @@
         <v>113</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
@@ -1644,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>21</v>
@@ -1662,10 +1659,10 @@
         <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1694,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>23</v>
@@ -1710,10 +1707,10 @@
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1742,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1758,15 +1755,15 @@
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>89</v>
@@ -1790,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -1806,15 +1803,15 @@
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>90</v>
@@ -1838,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>21</v>
@@ -1854,10 +1851,10 @@
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1880,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>31</v>
@@ -1900,10 +1897,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1926,13 +1923,13 @@
         <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>34</v>
@@ -1948,10 +1945,10 @@
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1974,13 +1971,13 @@
         <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>36</v>
@@ -1994,10 +1991,10 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -2020,13 +2017,13 @@
         <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>38</v>
@@ -2040,10 +2037,10 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -2066,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>40</v>
@@ -2086,10 +2083,10 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -2112,13 +2109,13 @@
         <v>32</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>42</v>
@@ -2132,10 +2129,10 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2158,13 +2155,13 @@
         <v>32</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>44</v>
@@ -2178,10 +2175,10 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2204,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>46</v>
@@ -2224,10 +2221,10 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2250,13 +2247,13 @@
         <v>32</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>48</v>
@@ -2270,10 +2267,10 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -2296,13 +2293,13 @@
         <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>50</v>
@@ -2316,10 +2313,10 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -2342,13 +2339,13 @@
         <v>32</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>52</v>
@@ -2362,10 +2359,10 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2388,13 +2385,13 @@
         <v>32</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>54</v>
@@ -2410,10 +2407,10 @@
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2436,13 +2433,13 @@
         <v>32</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>72</v>
@@ -2456,10 +2453,10 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2482,13 +2479,13 @@
         <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>56</v>
@@ -2504,10 +2501,10 @@
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2530,13 +2527,13 @@
         <v>32</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>58</v>
@@ -2552,24 +2549,24 @@
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>113</v>
@@ -2578,13 +2575,13 @@
         <v>32</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>34</v>
@@ -2600,10 +2597,10 @@
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2632,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>105</v>
@@ -2648,30 +2645,30 @@
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>130</v>
@@ -2696,30 +2693,30 @@
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>130</v>
@@ -2728,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>133</v>
@@ -2744,30 +2741,30 @@
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>130</v>
@@ -2776,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>133</v>
@@ -2792,10 +2789,10 @@
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BA080-2B3D-074A-A351-832A9A409830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D5E9BE-0F17-2446-86F4-D85518808D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="5020" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23640" yWindow="5600" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="141">
   <si>
     <t>In project?</t>
   </si>
@@ -377,51 +377,12 @@
     <t>genus</t>
   </si>
   <si>
-    <t>EFV-cISF.1-AedAeg-con</t>
-  </si>
-  <si>
-    <t>EFV-cISF.2-AedAlb-con</t>
-  </si>
-  <si>
-    <t>EFV-cISF.5-TipOle-con</t>
-  </si>
-  <si>
-    <t>EFV-Flavi.2-DapMag-con</t>
-  </si>
-  <si>
-    <t>EFV-Flavi.3-LepArc-con</t>
-  </si>
-  <si>
-    <t>EFV-Tamana.2-LauKoh-con</t>
-  </si>
-  <si>
-    <t>EFV-Tamana.3-AmpSul-con</t>
-  </si>
-  <si>
-    <t>EFV-X1.1-PriCau-con</t>
-  </si>
-  <si>
-    <t>EFV-X2.1-EurAff-con</t>
-  </si>
-  <si>
-    <t>EFV-Flavi.1-CraSow-con</t>
-  </si>
-  <si>
     <t>EFV-Flavi.1-CraSow</t>
   </si>
   <si>
-    <t>EFV-PL2.1-CalCec-con</t>
-  </si>
-  <si>
-    <t>EFV-PL2.3-CerCal-con</t>
-  </si>
-  <si>
     <t>EFV-PL2.3-CerAus</t>
   </si>
   <si>
-    <t>EFV-PL2.6-XenBra-con</t>
-  </si>
-  <si>
     <t>Jingmenvirus</t>
   </si>
   <si>
@@ -437,9 +398,6 @@
     <t>EJP-Jingmen.2-GerBue</t>
   </si>
   <si>
-    <t>EJP-Jingmen.1-Chironomus-con</t>
-  </si>
-  <si>
     <t>EJP-Jingmen.1-Chironomus</t>
   </si>
   <si>
@@ -477,12 +435,6 @@
   </si>
   <si>
     <t>reftype</t>
-  </si>
-  <si>
-    <t>EFV-X2.3-StyCho-con</t>
-  </si>
-  <si>
-    <t>EFV-X2.2-AusLim-con</t>
   </si>
   <si>
     <t>Tamanavirus</t>
@@ -962,7 +914,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:P38"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,10 +938,10 @@
         <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>110</v>
@@ -1004,36 +956,36 @@
         <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>74</v>
@@ -1057,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -1075,15 +1027,15 @@
         <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>75</v>
@@ -1107,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
@@ -1125,10 +1077,10 @@
         <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1157,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>62</v>
@@ -1173,10 +1125,10 @@
         <v>64</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1205,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
@@ -1221,15 +1173,15 @@
         <v>64</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>78</v>
@@ -1253,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
@@ -1269,10 +1221,10 @@
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1301,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>70</v>
@@ -1319,24 +1271,24 @@
         <v>64</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>113</v>
@@ -1351,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>61</v>
@@ -1367,15 +1319,15 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>79</v>
@@ -1399,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
@@ -1415,15 +1367,15 @@
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
@@ -1447,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
@@ -1463,10 +1415,10 @@
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1486,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
@@ -1495,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>67</v>
@@ -1513,15 +1465,15 @@
         <v>64</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>84</v>
@@ -1536,7 +1488,7 @@
         <v>113</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
@@ -1545,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
@@ -1561,15 +1513,15 @@
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
@@ -1584,7 +1536,7 @@
         <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>17</v>
@@ -1593,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1609,10 +1561,10 @@
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1632,7 +1584,7 @@
         <v>113</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
@@ -1641,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>21</v>
@@ -1659,15 +1611,15 @@
         <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>87</v>
@@ -1691,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>23</v>
@@ -1707,15 +1659,15 @@
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>88</v>
@@ -1739,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1755,15 +1707,15 @@
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>89</v>
@@ -1787,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -1803,15 +1755,15 @@
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>90</v>
@@ -1835,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>21</v>
@@ -1851,15 +1803,15 @@
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>91</v>
@@ -1877,13 +1829,13 @@
         <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>31</v>
@@ -1897,10 +1849,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1923,13 +1875,13 @@
         <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>34</v>
@@ -1945,15 +1897,15 @@
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>82</v>
@@ -1971,13 +1923,13 @@
         <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>36</v>
@@ -1991,15 +1943,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>71</v>
@@ -2017,13 +1969,13 @@
         <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>38</v>
@@ -2037,10 +1989,10 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -2063,13 +2015,13 @@
         <v>32</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>40</v>
@@ -2083,10 +2035,10 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -2109,13 +2061,13 @@
         <v>32</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>42</v>
@@ -2129,10 +2081,10 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2155,13 +2107,13 @@
         <v>32</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>44</v>
@@ -2175,10 +2127,10 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2201,13 +2153,13 @@
         <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>46</v>
@@ -2221,10 +2173,10 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2247,13 +2199,13 @@
         <v>32</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>48</v>
@@ -2267,10 +2219,10 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -2293,13 +2245,13 @@
         <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>50</v>
@@ -2313,10 +2265,10 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -2339,13 +2291,13 @@
         <v>32</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>52</v>
@@ -2359,10 +2311,10 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2385,13 +2337,13 @@
         <v>32</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>54</v>
@@ -2407,10 +2359,10 @@
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2433,13 +2385,13 @@
         <v>32</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>72</v>
@@ -2453,15 +2405,15 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>102</v>
@@ -2479,13 +2431,13 @@
         <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>56</v>
@@ -2501,10 +2453,10 @@
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2527,13 +2479,13 @@
         <v>32</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>58</v>
@@ -2549,24 +2501,24 @@
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>113</v>
@@ -2575,13 +2527,13 @@
         <v>32</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>34</v>
@@ -2597,10 +2549,10 @@
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2629,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>105</v>
@@ -2645,33 +2597,33 @@
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -2680,10 +2632,10 @@
         <v>114</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>65</v>
@@ -2693,45 +2645,45 @@
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>66</v>
@@ -2741,45 +2693,45 @@
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>66</v>
@@ -2789,10 +2741,10 @@
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D5E9BE-0F17-2446-86F4-D85518808D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB37A8F-D67D-C345-BD8D-DDF30C8BE094}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23640" yWindow="5600" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9220" yWindow="8760" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="142">
   <si>
     <t>In project?</t>
   </si>
@@ -453,6 +451,9 @@
   </si>
   <si>
     <t>locus_numeric_id</t>
+  </si>
+  <si>
+    <t>EFV-PL2.3-Apoidae</t>
   </si>
 </sst>
 </file>
@@ -508,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,11 +555,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,7 +908,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,13 +917,13 @@
     <col min="2" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="22" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" customWidth="1"/>
     <col min="11" max="11" width="30.5" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="16" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16" style="5" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -955,10 +949,10 @@
       <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -970,10 +964,10 @@
       <c r="L1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1005,7 +999,7 @@
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1014,16 +1008,16 @@
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1055,7 +1049,7 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1064,16 +1058,16 @@
       <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>16</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1105,7 +1099,7 @@
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1114,14 +1108,14 @@
       <c r="J4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>1</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -1153,7 +1147,7 @@
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1162,14 +1156,14 @@
       <c r="J5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1201,7 +1195,7 @@
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1210,16 +1204,16 @@
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>4</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="2" t="s">
         <v>127</v>
       </c>
@@ -1249,7 +1243,7 @@
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1258,16 +1252,16 @@
       <c r="J7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>1</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -1299,7 +1293,7 @@
       <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1308,16 +1302,16 @@
       <c r="J8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>7</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="2" t="s">
         <v>127</v>
       </c>
@@ -1347,7 +1341,7 @@
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1356,16 +1350,16 @@
       <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>2</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="2" t="s">
         <v>127</v>
       </c>
@@ -1395,7 +1389,7 @@
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1404,16 +1398,16 @@
       <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>3</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="2" t="s">
         <v>127</v>
       </c>
@@ -1443,7 +1437,7 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1452,16 +1446,16 @@
       <c r="J11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -1493,7 +1487,7 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1502,16 +1496,16 @@
       <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>2</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="2" t="s">
         <v>127</v>
       </c>
@@ -1541,7 +1535,7 @@
       <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -1550,16 +1544,16 @@
       <c r="J13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>2</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="2" t="s">
         <v>127</v>
       </c>
@@ -1589,7 +1583,7 @@
       <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1598,16 +1592,16 @@
       <c r="J14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -1639,7 +1633,7 @@
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1648,16 +1642,16 @@
       <c r="J15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>2</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="2" t="s">
         <v>127</v>
       </c>
@@ -1687,7 +1681,7 @@
       <c r="G16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1696,16 +1690,16 @@
       <c r="J16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>6</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="2" t="s">
         <v>127</v>
       </c>
@@ -1735,7 +1729,7 @@
       <c r="G17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1744,16 +1738,16 @@
       <c r="J17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>4</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="2" t="s">
         <v>127</v>
       </c>
@@ -1783,7 +1777,7 @@
       <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -1792,16 +1786,16 @@
       <c r="J18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>1</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="2" t="s">
         <v>127</v>
       </c>
@@ -1831,7 +1825,7 @@
       <c r="G19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -1840,14 +1834,14 @@
       <c r="J19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="2" t="s">
         <v>127</v>
       </c>
@@ -1877,7 +1871,7 @@
       <c r="G20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -1886,16 +1880,16 @@
       <c r="J20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>1</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="2" t="s">
         <v>127</v>
       </c>
@@ -1905,7 +1899,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>82</v>
@@ -1925,7 +1919,7 @@
       <c r="G21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -1934,14 +1928,14 @@
       <c r="J21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="2" t="s">
         <v>127</v>
       </c>
@@ -1971,7 +1965,7 @@
       <c r="G22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -1980,14 +1974,14 @@
       <c r="J22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="2" t="s">
         <v>127</v>
       </c>
@@ -2017,7 +2011,7 @@
       <c r="G23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -2026,14 +2020,14 @@
       <c r="J23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="2" t="s">
         <v>127</v>
       </c>
@@ -2063,7 +2057,7 @@
       <c r="G24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -2072,14 +2066,14 @@
       <c r="J24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="2" t="s">
         <v>127</v>
       </c>
@@ -2109,7 +2103,7 @@
       <c r="G25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -2118,14 +2112,14 @@
       <c r="J25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="2" t="s">
         <v>127</v>
       </c>
@@ -2155,7 +2149,7 @@
       <c r="G26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -2164,14 +2158,14 @@
       <c r="J26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="2" t="s">
         <v>127</v>
       </c>
@@ -2201,7 +2195,7 @@
       <c r="G27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -2210,14 +2204,14 @@
       <c r="J27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="2" t="s">
         <v>127</v>
       </c>
@@ -2247,7 +2241,7 @@
       <c r="G28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -2256,14 +2250,14 @@
       <c r="J28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="2" t="s">
         <v>127</v>
       </c>
@@ -2293,7 +2287,7 @@
       <c r="G29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -2302,14 +2296,14 @@
       <c r="J29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="2" t="s">
         <v>127</v>
       </c>
@@ -2339,7 +2333,7 @@
       <c r="G30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -2348,16 +2342,16 @@
       <c r="J30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>2</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="2" t="s">
         <v>127</v>
       </c>
@@ -2387,7 +2381,7 @@
       <c r="G31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -2396,14 +2390,14 @@
       <c r="J31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="2" t="s">
         <v>127</v>
       </c>
@@ -2433,7 +2427,7 @@
       <c r="G32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>6</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -2442,16 +2436,16 @@
       <c r="J32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>16</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="2" t="s">
         <v>127</v>
       </c>
@@ -2481,7 +2475,7 @@
       <c r="G33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>7</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -2490,16 +2484,16 @@
       <c r="J33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>2</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="2" t="s">
         <v>127</v>
       </c>
@@ -2529,7 +2523,7 @@
       <c r="G34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -2538,16 +2532,16 @@
       <c r="J34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>1</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="2" t="s">
         <v>127</v>
       </c>
@@ -2577,7 +2571,7 @@
       <c r="G35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -2586,16 +2580,16 @@
       <c r="J35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <v>1</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="2" t="s">
         <v>127</v>
       </c>
@@ -2625,7 +2619,7 @@
       <c r="G36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -2634,16 +2628,16 @@
       <c r="J36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="7" t="s">
         <v>118</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <v>2</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="2" t="s">
         <v>127</v>
       </c>
@@ -2673,7 +2667,7 @@
       <c r="G37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -2682,16 +2676,16 @@
       <c r="J37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>1</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="6"/>
       <c r="O37" s="2" t="s">
         <v>127</v>
       </c>
@@ -2721,7 +2715,7 @@
       <c r="G38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -2730,16 +2724,16 @@
       <c r="J38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>1</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="2" t="s">
         <v>127</v>
       </c>
@@ -2762,164 +2756,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A7:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB37A8F-D67D-C345-BD8D-DDF30C8BE094}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D55C91-40CC-CB40-8268-28498381C505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="8760" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="720" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="157">
   <si>
     <t>In project?</t>
   </si>
@@ -276,9 +276,6 @@
     <t>EFV-cISF.6-ConPat</t>
   </si>
   <si>
-    <t>EFV-PL2.3-CerCal</t>
-  </si>
-  <si>
     <t>EFV-Tamana.1-LedTum</t>
   </si>
   <si>
@@ -294,15 +291,6 @@
     <t>EFV-X1.1-PriCau</t>
   </si>
   <si>
-    <t>EFV-X2.1-EurAff</t>
-  </si>
-  <si>
-    <t>EFV-X2.2-AusLim</t>
-  </si>
-  <si>
-    <t>EFV-X2.3-StyCho</t>
-  </si>
-  <si>
     <t>EFV-PL2.1-CalCec</t>
   </si>
   <si>
@@ -454,19 +442,83 @@
   </si>
   <si>
     <t>EFV-PL2.3-Apoidae</t>
+  </si>
+  <si>
+    <t>EFV-X2.1-AusLim</t>
+  </si>
+  <si>
+    <t>EFV-X2.3-EurAff</t>
+  </si>
+  <si>
+    <t>EFV-X2.2-StyCho</t>
+  </si>
+  <si>
+    <t>EFV-X2.4-Takifugu</t>
+  </si>
+  <si>
+    <t>EFV-X2.5-Phycis</t>
+  </si>
+  <si>
+    <t>EFV-X2.6-MorMor</t>
+  </si>
+  <si>
+    <t>EFV-X2.7-BroBro</t>
+  </si>
+  <si>
+    <t>EFV-X2.8-MacPee</t>
+  </si>
+  <si>
+    <t>EFV-X2.9-BolPec</t>
+  </si>
+  <si>
+    <t>Takifugu</t>
+  </si>
+  <si>
+    <t>Phycis</t>
+  </si>
+  <si>
+    <t>Boleophthalmus pectinirostris</t>
+  </si>
+  <si>
+    <t>Mora moro</t>
+  </si>
+  <si>
+    <t>Maccullochella peelii</t>
+  </si>
+  <si>
+    <t>Bluespotted mudhopper</t>
+  </si>
+  <si>
+    <t>Brosme brosme</t>
+  </si>
+  <si>
+    <t>Cusk</t>
+  </si>
+  <si>
+    <t>Murray cod</t>
+  </si>
+  <si>
+    <t>Common mora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,29 +592,29 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -571,6 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
@@ -905,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E20" sqref="A1:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,52 +982,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -991,7 +1044,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>60</v>
@@ -1003,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -1021,10 +1074,10 @@
         <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1041,7 +1094,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>60</v>
@@ -1053,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
@@ -1071,10 +1124,10 @@
         <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1091,7 +1144,7 @@
         <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>60</v>
@@ -1103,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>62</v>
@@ -1119,10 +1172,10 @@
         <v>64</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1139,7 +1192,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>60</v>
@@ -1151,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
@@ -1167,10 +1220,10 @@
         <v>64</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1187,7 +1240,7 @@
         <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>60</v>
@@ -1199,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
@@ -1215,10 +1268,10 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1235,7 +1288,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
@@ -1247,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>70</v>
@@ -1265,27 +1318,27 @@
         <v>64</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>60</v>
@@ -1297,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>61</v>
@@ -1313,10 +1366,10 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1333,7 +1386,7 @@
         <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>60</v>
@@ -1345,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
@@ -1361,10 +1414,10 @@
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1381,7 +1434,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
@@ -1393,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
@@ -1409,30 +1462,30 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
@@ -1441,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>67</v>
@@ -1459,30 +1512,30 @@
         <v>64</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
@@ -1491,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
@@ -1507,30 +1560,30 @@
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>17</v>
@@ -1539,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1555,30 +1608,30 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
@@ -1587,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>21</v>
@@ -1605,27 +1658,27 @@
         <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
@@ -1637,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>23</v>
@@ -1653,27 +1706,27 @@
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -1685,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1701,27 +1754,27 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>27</v>
@@ -1733,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -1749,27 +1802,27 @@
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>27</v>
@@ -1781,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>21</v>
@@ -1797,323 +1850,333 @@
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H19" s="6">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="6">
         <v>1</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H20" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>148</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20" s="6">
         <v>1</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H21" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>150</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H22" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>37</v>
+        <v>153</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H23" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>151</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H24" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>41</v>
+        <v>149</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H25" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>65</v>
@@ -2121,91 +2184,93 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H26" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H27" s="6">
         <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>65</v>
@@ -2213,45 +2278,45 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H28" s="6">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>65</v>
@@ -2259,45 +2324,45 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H29" s="6">
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>65</v>
@@ -2305,331 +2370,321 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H30" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="6">
-        <v>2</v>
-      </c>
+      <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H31" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H32" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="6">
-        <v>16</v>
-      </c>
+      <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H33" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="6">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H34" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M34" s="6">
-        <v>1</v>
-      </c>
+      <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H35" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" s="6">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H36" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>65</v>
@@ -2639,115 +2694,401 @@
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H37" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M37" s="6">
-        <v>1</v>
-      </c>
+      <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H38" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="6">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="6">
+        <v>2</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="6">
+        <v>9</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="6">
+        <v>2</v>
+      </c>
+      <c r="N42" s="6"/>
+      <c r="O42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="6">
+        <v>1</v>
+      </c>
+      <c r="N43" s="6"/>
+      <c r="O43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="6">
+        <v>1</v>
+      </c>
+      <c r="N44" s="6"/>
+      <c r="O44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O33">
-    <sortCondition ref="F2:F33"/>
-    <sortCondition ref="G2:G33"/>
-    <sortCondition ref="H2:H33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O39">
+    <sortCondition ref="F2:F39"/>
+    <sortCondition ref="G2:G39"/>
+    <sortCondition ref="H2:H39"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D55C91-40CC-CB40-8268-28498381C505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2311D762-F0A7-2443-B4C0-07158058E1AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="720" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:P44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D28" sqref="A1:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2311D762-F0A7-2443-B4C0-07158058E1AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6750B2-D770-5349-B232-D1CDADE977DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="720" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D28" sqref="A1:P44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6750B2-D770-5349-B232-D1CDADE977DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8DFCC8-132E-0749-942D-0D720111D953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="720" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="Apoidae sublineages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="158">
   <si>
     <t>In project?</t>
   </si>
@@ -135,12 +136,6 @@
     <t>Euschistus heros</t>
   </si>
   <si>
-    <t>Small blue-black bee</t>
-  </si>
-  <si>
-    <t>Ceratina calcarata</t>
-  </si>
-  <si>
     <t>Carpenter bee</t>
   </si>
   <si>
@@ -192,9 +187,6 @@
     <t>Cottonwool gall wasp</t>
   </si>
   <si>
-    <t>Andricus quercusramuli</t>
-  </si>
-  <si>
     <t>Grasshopper</t>
   </si>
   <si>
@@ -318,9 +310,6 @@
     <t>EFV-PL2.3-DufNov</t>
   </si>
   <si>
-    <t>EFV-PL2.4-AndQue</t>
-  </si>
-  <si>
     <t>EFV-PL2.5-AnoGla</t>
   </si>
   <si>
@@ -499,19 +488,41 @@
   </si>
   <si>
     <t>Common mora</t>
+  </si>
+  <si>
+    <t>EFV-PL2.4-Andricus</t>
+  </si>
+  <si>
+    <t>Andricus</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Apoidae</t>
+  </si>
+  <si>
+    <t>Sweat bees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,29 +603,29 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -623,6 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,72 +994,72 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -1056,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -1065,39 +1077,39 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M2" s="6">
         <v>10</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -1106,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
@@ -1115,39 +1127,39 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="6">
         <v>16</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>3</v>
@@ -1156,46 +1168,46 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M4" s="6">
         <v>1</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>3</v>
@@ -1204,46 +1216,46 @@
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M5" s="6">
         <v>1</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>3</v>
@@ -1252,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
@@ -1261,37 +1273,37 @@
         <v>6</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M6" s="6">
         <v>4</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -1300,48 +1312,48 @@
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M7" s="6">
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
@@ -1350,46 +1362,46 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8" s="6">
         <v>7</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -1398,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
@@ -1407,37 +1419,37 @@
         <v>8</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M9" s="6">
         <v>2</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -1446,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
@@ -1455,37 +1467,37 @@
         <v>11</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M10" s="6">
         <v>3</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
@@ -1494,48 +1506,48 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M11" s="6">
         <v>1</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
@@ -1544,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
@@ -1553,37 +1565,37 @@
         <v>15</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M12" s="6">
         <v>2</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>17</v>
@@ -1592,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1601,37 +1613,37 @@
         <v>18</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M13" s="6">
         <v>2</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
@@ -1640,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>21</v>
@@ -1649,36 +1661,36 @@
         <v>20</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M14" s="6">
         <v>1</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
@@ -1690,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>23</v>
@@ -1699,34 +1711,34 @@
         <v>22</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M15" s="6">
         <v>2</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -1738,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1747,34 +1759,34 @@
         <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M16" s="6">
         <v>6</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>27</v>
@@ -1786,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>26</v>
@@ -1795,34 +1807,34 @@
         <v>25</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M17" s="6">
         <v>4</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>27</v>
@@ -1834,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>21</v>
@@ -1843,34 +1855,34 @@
         <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M18" s="6">
         <v>1</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>27</v>
@@ -1882,43 +1894,43 @@
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M19" s="6">
         <v>1</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>27</v>
@@ -1930,43 +1942,43 @@
         <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M20" s="6">
         <v>1</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>27</v>
@@ -1978,43 +1990,43 @@
         <v>6</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M21" s="6">
         <v>1</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>27</v>
@@ -2026,43 +2038,43 @@
         <v>7</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M22" s="6">
         <v>1</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>27</v>
@@ -2074,43 +2086,43 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>27</v>
@@ -2122,973 +2134,511 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>30</v>
+        <v>156</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H26" s="6">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="6">
         <v>2</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H27" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H28" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="M28" s="6">
+        <v>16</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H29" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="M29" s="6">
+        <v>2</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H30" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
       <c r="N30" s="6"/>
       <c r="O30" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="H31" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H32" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="M32" s="6">
+        <v>2</v>
+      </c>
       <c r="N32" s="6"/>
       <c r="O32" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H34" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
       <c r="N34" s="6"/>
       <c r="O34" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="6">
-        <v>3</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="6">
-        <v>4</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="6">
-        <v>2</v>
-      </c>
-      <c r="N36" s="6"/>
-      <c r="O36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="6">
-        <v>5</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="6">
-        <v>6</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M38" s="6">
-        <v>16</v>
-      </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="6">
-        <v>7</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" s="6">
-        <v>2</v>
-      </c>
-      <c r="N39" s="6"/>
-      <c r="O39" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="6">
-        <v>9</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="6">
-        <v>1</v>
-      </c>
-      <c r="N40" s="6"/>
-      <c r="O40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M41" s="6">
-        <v>1</v>
-      </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" s="6">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M42" s="6">
-        <v>2</v>
-      </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M43" s="6">
-        <v>1</v>
-      </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M44" s="6">
-        <v>1</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O39">
-    <sortCondition ref="F2:F39"/>
-    <sortCondition ref="G2:G39"/>
-    <sortCondition ref="H2:H39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O29">
+    <sortCondition ref="F2:F29"/>
+    <sortCondition ref="G2:G29"/>
+    <sortCondition ref="H2:H29"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3097,4 +2647,534 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BFE68-E385-D844-8285-4FEAA9A3B775}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8DFCC8-132E-0749-942D-0D720111D953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D91C9A-682F-3F4F-9DB5-12305316E7C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -970,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:P34"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2158,16 +2158,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>105</v>
@@ -2179,16 +2179,16 @@
         <v>128</v>
       </c>
       <c r="H25" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>157</v>
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>62</v>
@@ -2204,16 +2204,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>105</v>
@@ -2225,22 +2225,22 @@
         <v>128</v>
       </c>
       <c r="H26" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M26" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="2" t="s">
@@ -2252,16 +2252,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>105</v>
@@ -2273,19 +2273,19 @@
         <v>128</v>
       </c>
       <c r="H27" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>156</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -2298,16 +2298,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>105</v>
@@ -2319,22 +2319,22 @@
         <v>128</v>
       </c>
       <c r="H28" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M28" s="6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="2" t="s">
@@ -2346,16 +2346,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>105</v>
@@ -2367,23 +2367,21 @@
         <v>128</v>
       </c>
       <c r="H29" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M29" s="6">
-        <v>2</v>
-      </c>
+      <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="2" t="s">
         <v>119</v>
@@ -2394,16 +2392,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>105</v>
@@ -2415,22 +2413,22 @@
         <v>128</v>
       </c>
       <c r="H30" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M30" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="2" t="s">
@@ -2442,43 +2440,43 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H31" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="2" t="s">
@@ -2490,43 +2488,43 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H32" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M32" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="2" t="s">
@@ -2538,37 +2536,37 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H33" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>63</v>
@@ -2586,22 +2584,22 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>109</v>
@@ -2610,19 +2608,19 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="2" t="s">
@@ -2632,11 +2630,107 @@
         <v>119</v>
       </c>
     </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O29">
-    <sortCondition ref="F2:F29"/>
-    <sortCondition ref="G2:G29"/>
-    <sortCondition ref="H2:H29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O31">
+    <sortCondition ref="F2:F31"/>
+    <sortCondition ref="G2:G31"/>
+    <sortCondition ref="H2:H31"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2651,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BFE68-E385-D844-8285-4FEAA9A3B775}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2714,16 +2808,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>105</v>
@@ -2735,16 +2829,16 @@
         <v>128</v>
       </c>
       <c r="H2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>62</v>
@@ -2760,16 +2854,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>105</v>
@@ -2781,23 +2875,21 @@
         <v>128</v>
       </c>
       <c r="H3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="2" t="s">
         <v>119</v>
@@ -2808,16 +2900,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>105</v>
@@ -2835,10 +2927,10 @@
         <v>116</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>62</v>
@@ -2854,16 +2946,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>105</v>
@@ -2881,10 +2973,10 @@
         <v>116</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>62</v>
@@ -2900,16 +2992,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>105</v>
@@ -2927,10 +3019,10 @@
         <v>116</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>62</v>
@@ -2946,16 +3038,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>105</v>
@@ -2973,10 +3065,10 @@
         <v>116</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>62</v>
@@ -2992,16 +3084,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>105</v>
@@ -3019,10 +3111,10 @@
         <v>116</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>62</v>
@@ -3038,16 +3130,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>105</v>
@@ -3065,10 +3157,10 @@
         <v>116</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>62</v>
@@ -3079,98 +3171,6 @@
         <v>119</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="6">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="6">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P11" s="2" t="s">
         <v>119</v>
       </c>
     </row>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D91C9A-682F-3F4F-9DB5-12305316E7C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056FF4F-EABF-524E-97CA-1D2EAEE675EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1690,7 @@
         <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
@@ -2747,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BFE68-E385-D844-8285-4FEAA9A3B775}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056FF4F-EABF-524E-97CA-1D2EAEE675EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D79C4A-CB21-F242-BBA9-9D7B02026BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:P36"/>
+      <selection activeCell="E19" sqref="A1:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1690,7 @@
         <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D79C4A-CB21-F242-BBA9-9D7B02026BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877AFC38-2AD7-0D48-9D5B-85E237E2021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="160">
   <si>
     <t>In project?</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>Sweat bees</t>
+  </si>
+  <si>
+    <t>EJH-Jingmen.1-Gerris_buenoi</t>
+  </si>
+  <si>
+    <t>EJP-Jingmen.2-Gerris_buenoi</t>
   </si>
 </sst>
 </file>
@@ -973,7 +979,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:P36"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2632,7 +2638,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>113</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>115</v>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877AFC38-2AD7-0D48-9D5B-85E237E2021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923BD6F1-8418-3940-86EC-1AD61508D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21880" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="163">
   <si>
     <t>In project?</t>
   </si>
@@ -509,6 +509,15 @@
   </si>
   <si>
     <t>EJP-Jingmen.2-Gerris_buenoi</t>
+  </si>
+  <si>
+    <t>EFV-cISF.4-Anopheles_sinensis</t>
+  </si>
+  <si>
+    <t>EFV-cISF.6-Condylostylus_patibulatus</t>
+  </si>
+  <si>
+    <t>EFV-cISF.3-Anopheles_minimus</t>
   </si>
 </sst>
 </file>
@@ -979,12 +988,12 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -1150,7 +1159,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
@@ -1198,7 +1207,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>74</v>
@@ -1294,7 +1303,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923BD6F1-8418-3940-86EC-1AD61508D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132E6F2-74DC-0643-B23C-F1A70C076041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21880" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Apoidae sublineages" sheetId="2" r:id="rId2"/>
+    <sheet name="single copy" sheetId="3" r:id="rId2"/>
+    <sheet name="Apoidae sublineages" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="163">
   <si>
     <t>In project?</t>
   </si>
@@ -988,7 +989,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C23" sqref="A1:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1160,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
@@ -1207,7 +1208,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>74</v>
@@ -1303,7 +1304,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>
@@ -1497,25 +1498,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
@@ -1524,10 +1525,10 @@
         <v>116</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>63</v>
@@ -1535,9 +1536,7 @@
       <c r="M11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="2" t="s">
         <v>119</v>
       </c>
@@ -1547,37 +1546,37 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="H12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>62</v>
@@ -1595,43 +1594,43 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="H13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="2" t="s">
@@ -1643,37 +1642,37 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="H14" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>63</v>
@@ -1681,9 +1680,7 @@
       <c r="M14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="2" t="s">
         <v>119</v>
       </c>
@@ -1693,25 +1690,25 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="H15" s="6">
         <v>1</v>
@@ -1720,17 +1717,15 @@
         <v>116</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="6">
-        <v>2</v>
-      </c>
+      <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="2" t="s">
         <v>119</v>
@@ -1741,43 +1736,43 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="H16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M16" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="2" t="s">
@@ -1789,44 +1784,42 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="H17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>156</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="6">
-        <v>4</v>
-      </c>
+      <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="2" t="s">
         <v>119</v>
@@ -1837,43 +1830,43 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="H18" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="2" t="s">
@@ -1885,44 +1878,42 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="H19" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
+      <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="2" t="s">
         <v>119</v>
@@ -1933,43 +1924,43 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="H20" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>144</v>
+        <v>53</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M20" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="2" t="s">
@@ -1981,43 +1972,43 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="H21" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>152</v>
+        <v>55</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="2" t="s">
@@ -2029,40 +2020,40 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="H22" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>150</v>
+        <v>34</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M22" s="6">
         <v>1</v>
@@ -2077,37 +2068,37 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H23" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>151</v>
+        <v>64</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>63</v>
@@ -2115,7 +2106,9 @@
       <c r="M23" s="6">
         <v>1</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="O23" s="2" t="s">
         <v>119</v>
       </c>
@@ -2125,43 +2118,43 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H24" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>148</v>
+        <v>16</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="2" t="s">
@@ -2173,42 +2166,44 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="H25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="M25" s="6">
+        <v>2</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="2" t="s">
         <v>119</v>
@@ -2219,45 +2214,47 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="H26" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M26" s="6">
         <v>1</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>119</v>
       </c>
@@ -2267,42 +2264,44 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="H27" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>157</v>
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6">
+        <v>2</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="2" t="s">
         <v>119</v>
@@ -2313,43 +2312,43 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="H28" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M28" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="2" t="s">
@@ -2361,42 +2360,44 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="H29" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="M29" s="6">
+        <v>4</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="2" t="s">
         <v>119</v>
@@ -2407,43 +2408,43 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="H30" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M30" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="2" t="s">
@@ -2455,43 +2456,43 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="H31" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M31" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="2" t="s">
@@ -2503,40 +2504,40 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="H32" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>33</v>
+        <v>144</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M32" s="6">
         <v>1</v>
@@ -2551,37 +2552,37 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="H33" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>98</v>
+        <v>146</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>63</v>
@@ -2599,43 +2600,43 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H34" s="6">
+        <v>7</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="6">
         <v>1</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="6">
-        <v>2</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="2" t="s">
@@ -2647,37 +2648,37 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H35" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>63</v>
@@ -2695,37 +2696,37 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H36" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>63</v>
@@ -2742,10 +2743,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O31">
-    <sortCondition ref="F2:F31"/>
-    <sortCondition ref="G2:G31"/>
-    <sortCondition ref="H2:H31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P36">
+    <sortCondition ref="F2:F36"/>
+    <sortCondition ref="G2:G36"/>
+    <sortCondition ref="H2:H36"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2759,6 +2760,313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777FD607-A75F-9245-AAA5-C57EB8C00FB7}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657BFE68-E385-D844-8285-4FEAA9A3B775}">
   <dimension ref="A1:P9"/>
   <sheetViews>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132E6F2-74DC-0643-B23C-F1A70C076041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2385F3D8-C49A-DF48-9DFE-86FDF95B1F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21880" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="168">
   <si>
     <t>In project?</t>
   </si>
@@ -519,6 +519,21 @@
   </si>
   <si>
     <t>EFV-cISF.3-Anopheles_minimus</t>
+  </si>
+  <si>
+    <t>supergenus</t>
+  </si>
+  <si>
+    <t>FlaviLike</t>
+  </si>
+  <si>
+    <t>PestiLike</t>
+  </si>
+  <si>
+    <t>subgenus</t>
+  </si>
+  <si>
+    <t>LGF</t>
   </si>
 </sst>
 </file>
@@ -986,29 +1001,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C23" sqref="A1:P36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F22" sqref="A1:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="22" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
-    <col min="11" max="11" width="30.5" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="2" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="22" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.5" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="16" style="5" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1025,40 +1040,46 @@
         <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1075,40 +1096,46 @@
         <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="6">
+      <c r="O2" s="6">
         <v>10</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1125,40 +1152,46 @@
         <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>16</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1175,38 +1208,44 @@
         <v>105</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1223,38 +1262,44 @@
         <v>105</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="6">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="6">
+      <c r="O5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -1271,38 +1316,44 @@
         <v>105</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="6">
         <v>4</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -1319,40 +1370,46 @@
         <v>105</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="6">
+      <c r="O7" s="6">
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
@@ -1369,38 +1426,44 @@
         <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="6">
+      <c r="O8" s="6">
         <v>7</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1417,38 +1480,44 @@
         <v>105</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="6">
+      <c r="O9" s="6">
         <v>2</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -1465,38 +1534,44 @@
         <v>105</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="6">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="6">
+      <c r="O10" s="6">
         <v>3</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
@@ -1516,35 +1591,41 @@
         <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="6">
+      <c r="O11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -1561,38 +1642,44 @@
         <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="6">
+      <c r="O12" s="6">
         <v>2</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
@@ -1609,38 +1696,44 @@
         <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="6">
+      <c r="O13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>115</v>
       </c>
@@ -1657,38 +1750,44 @@
         <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="6">
+      <c r="O14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -1705,36 +1804,42 @@
         <v>105</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="I15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -1751,38 +1856,44 @@
         <v>105</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="I16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="6">
         <v>2</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="6">
+      <c r="O16" s="6">
         <v>1</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>133</v>
       </c>
@@ -1799,36 +1910,42 @@
         <v>105</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="I17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="6">
         <v>3</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="M17" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>153</v>
       </c>
@@ -1845,38 +1962,44 @@
         <v>105</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="I18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="6">
         <v>4</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="6">
+      <c r="O18" s="6">
         <v>2</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
@@ -1893,36 +2016,42 @@
         <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="I19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="6">
         <v>5</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -1939,38 +2068,44 @@
         <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="I20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="6">
+      <c r="O20" s="6">
         <v>16</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
@@ -1987,38 +2122,44 @@
         <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="I21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="6">
         <v>7</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="6">
+      <c r="O21" s="6">
         <v>2</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="6"/>
+      <c r="Q21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
@@ -2035,38 +2176,44 @@
         <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="I22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="6">
         <v>9</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="6">
+      <c r="O22" s="6">
         <v>1</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -2083,40 +2230,46 @@
         <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="6">
+      <c r="O23" s="6">
         <v>1</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
@@ -2133,38 +2286,44 @@
         <v>105</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="6">
         <v>2</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="6">
+      <c r="O24" s="6">
         <v>2</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -2181,38 +2340,44 @@
         <v>105</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="6">
         <v>3</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="6">
+      <c r="O25" s="6">
         <v>2</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
@@ -2229,40 +2394,46 @@
         <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="6">
         <v>4</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M26" s="6">
+      <c r="O26" s="6">
         <v>1</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2279,38 +2450,44 @@
         <v>105</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="6">
+      <c r="O27" s="6">
         <v>2</v>
       </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="6"/>
+      <c r="Q27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>135</v>
       </c>
@@ -2327,38 +2504,44 @@
         <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="6">
+      <c r="O28" s="6">
         <v>6</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="6"/>
+      <c r="Q28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>134</v>
       </c>
@@ -2375,38 +2558,44 @@
         <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="6">
         <v>2</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="6">
+      <c r="O29" s="6">
         <v>4</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -2423,38 +2612,44 @@
         <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M30" s="6">
+      <c r="O30" s="6">
         <v>1</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="6"/>
+      <c r="Q30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>137</v>
       </c>
@@ -2471,38 +2666,44 @@
         <v>105</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M31" s="6">
+      <c r="O31" s="6">
         <v>1</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="6"/>
+      <c r="Q31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>138</v>
       </c>
@@ -2519,38 +2720,44 @@
         <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="6">
         <v>5</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M32" s="6">
+      <c r="O32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>139</v>
       </c>
@@ -2567,38 +2774,44 @@
         <v>105</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="6">
         <v>6</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="6">
+      <c r="O33" s="6">
         <v>1</v>
       </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="6"/>
+      <c r="Q33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>140</v>
       </c>
@@ -2615,38 +2828,44 @@
         <v>105</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="6">
         <v>7</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M34" s="6">
+      <c r="O34" s="6">
         <v>1</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="6"/>
+      <c r="Q34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>141</v>
       </c>
@@ -2663,38 +2882,44 @@
         <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="6">
         <v>8</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="M35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M35" s="6">
+      <c r="O35" s="6">
         <v>1</v>
       </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="6"/>
+      <c r="Q35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>142</v>
       </c>
@@ -2711,42 +2936,48 @@
         <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="6">
         <v>9</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M36" s="6">
+      <c r="O36" s="6">
         <v>1</v>
       </c>
-      <c r="N36" s="6"/>
-      <c r="O36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P36" s="2" t="s">
+      <c r="P36" s="6"/>
+      <c r="Q36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P36">
-    <sortCondition ref="F2:F36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R36">
     <sortCondition ref="G2:G36"/>
     <sortCondition ref="H2:H36"/>
+    <sortCondition ref="J2:J36"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2385F3D8-C49A-DF48-9DFE-86FDF95B1F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2C652-5BC4-8F44-9261-5973157D05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21880" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="169">
   <si>
     <t>In project?</t>
   </si>
@@ -534,19 +534,29 @@
   </si>
   <si>
     <t>LGF</t>
+  </si>
+  <si>
+    <t>EFV-PL2.8-AnoPla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,29 +644,29 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -665,6 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1001,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:R36"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2973,13 +2984,67 @@
         <v>119</v>
       </c>
     </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="5">
+        <v>8</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R36">
     <sortCondition ref="G2:G36"/>
     <sortCondition ref="H2:H36"/>
     <sortCondition ref="J2:J36"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2C652-5BC4-8F44-9261-5973157D05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21BFE8C-6ED4-4A46-A139-2473C12D879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21880" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:R37"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21BFE8C-6ED4-4A46-A139-2473C12D879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975A67D-8CD0-6E4F-B3EB-DF42E7B33F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="4900" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975A67D-8CD0-6E4F-B3EB-DF42E7B33F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA94CD1A-CFD6-7D44-93F9-B62CFCC84532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="4900" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA94CD1A-CFD6-7D44-93F9-B62CFCC84532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963F06A-43C0-4047-BE41-592960FCBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="4900" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E12" sqref="E9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/efv-refseq-side-data.xlsx
+++ b/tabular/eve/efv-refseq-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963F06A-43C0-4047-BE41-592960FCBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4991780-9387-5C45-B72C-214D83B87C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="4900" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="172">
   <si>
     <t>In project?</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Operophtera brumata</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Flavivirus</t>
   </si>
   <si>
@@ -537,26 +534,31 @@
   </si>
   <si>
     <t>EFV-PL2.8-AnoPla</t>
+  </si>
+  <si>
+    <t>EFV-Pesti.1-Crocidurinae</t>
+  </si>
+  <si>
+    <t>Pestivirus</t>
+  </si>
+  <si>
+    <t>Crocidurinae-Soricinae</t>
+  </si>
+  <si>
+    <t>Crocidurid &amp; Soricinid shrews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,29 +646,29 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -675,7 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1012,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E12" sqref="E9:E12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="L28" sqref="A1:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,99 +1031,95 @@
     <col min="13" max="13" width="30.5" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="16" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>0</v>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="6">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>2</v>
@@ -1131,54 +1128,51 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O2" s="6">
         <v>10</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="6">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>5</v>
@@ -1187,162 +1181,153 @@
         <v>4</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O3" s="6">
         <v>16</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="6">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>61</v>
+      <c r="P4" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="6">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O5" s="6">
         <v>1</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>61</v>
+      <c r="P5" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="6">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>7</v>
@@ -1351,162 +1336,157 @@
         <v>6</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" s="6">
         <v>4</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="6">
         <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="6">
         <v>1</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>61</v>
+      <c r="P7" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O8" s="6">
         <v>7</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="6">
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>9</v>
@@ -1515,52 +1495,51 @@
         <v>8</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" s="6">
         <v>3</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>12</v>
@@ -1569,268 +1548,263 @@
         <v>11</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O10" s="6">
         <v>3</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" s="6">
         <v>1</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O12" s="6">
         <v>2</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="6">
         <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="6">
         <v>1</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="6">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" s="6">
         <v>1</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>31</v>
@@ -1839,50 +1813,49 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" s="6">
         <v>2</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>34</v>
@@ -1891,210 +1864,206 @@
         <v>33</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J17" s="6">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="6">
         <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O18" s="6">
         <v>2</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J19" s="6">
         <v>5</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="P19" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>53</v>
@@ -2103,52 +2072,51 @@
         <v>52</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="6">
         <v>16</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" s="6">
         <v>7</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2157,52 +2125,51 @@
         <v>54</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="6">
         <v>2</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="P21" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J22" s="6">
         <v>9</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>34</v>
@@ -2211,108 +2178,104 @@
         <v>33</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O22" s="6">
         <v>1</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J23" s="6">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="6">
         <v>1</v>
       </c>
-      <c r="P23" s="6" t="s">
-        <v>61</v>
+      <c r="P23" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J24" s="6">
         <v>2</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>16</v>
@@ -2321,52 +2284,51 @@
         <v>15</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O24" s="6">
         <v>2</v>
       </c>
-      <c r="P24" s="6"/>
+      <c r="P24" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25" s="6">
         <v>3</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>19</v>
@@ -2375,52 +2337,51 @@
         <v>18</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O25" s="6">
         <v>2</v>
       </c>
-      <c r="P25" s="6"/>
+      <c r="P25" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J26" s="6">
         <v>4</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>21</v>
@@ -2429,39 +2390,36 @@
         <v>20</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O26" s="6">
         <v>1</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>61</v>
+      <c r="P26" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>24</v>
@@ -2470,13 +2428,13 @@
         <v>24</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27" s="6">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>23</v>
@@ -2485,37 +2443,36 @@
         <v>22</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O27" s="6">
         <v>2</v>
       </c>
-      <c r="P27" s="6"/>
+      <c r="P27" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
@@ -2524,13 +2481,13 @@
         <v>27</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J28" s="6">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>29</v>
@@ -2539,37 +2496,36 @@
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O28" s="6">
         <v>6</v>
       </c>
-      <c r="P28" s="6"/>
+      <c r="P28" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>27</v>
@@ -2578,13 +2534,13 @@
         <v>27</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>26</v>
@@ -2593,37 +2549,36 @@
         <v>25</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" s="6">
         <v>4</v>
       </c>
-      <c r="P29" s="6"/>
+      <c r="P29" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
@@ -2632,13 +2587,13 @@
         <v>27</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>21</v>
@@ -2647,37 +2602,36 @@
         <v>20</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O30" s="6">
         <v>1</v>
       </c>
-      <c r="P30" s="6"/>
+      <c r="P30" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>27</v>
@@ -2686,52 +2640,51 @@
         <v>27</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" s="6">
         <v>4</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O31" s="6">
         <v>1</v>
       </c>
-      <c r="P31" s="6"/>
+      <c r="P31" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>27</v>
@@ -2740,52 +2693,51 @@
         <v>27</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J32" s="6">
         <v>5</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O32" s="6">
         <v>1</v>
       </c>
-      <c r="P32" s="6"/>
+      <c r="P32" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>27</v>
@@ -2794,52 +2746,51 @@
         <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J33" s="6">
         <v>6</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O33" s="6">
         <v>1</v>
       </c>
-      <c r="P33" s="6"/>
+      <c r="P33" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -2848,52 +2799,51 @@
         <v>27</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J34" s="6">
         <v>7</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="N34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O34" s="6">
         <v>1</v>
       </c>
-      <c r="P34" s="6"/>
+      <c r="P34" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -2902,52 +2852,51 @@
         <v>27</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J35" s="6">
         <v>8</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O35" s="6">
         <v>1</v>
       </c>
-      <c r="P35" s="6"/>
+      <c r="P35" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -2956,95 +2905,144 @@
         <v>27</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J36" s="6">
         <v>9</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O36" s="6">
         <v>1</v>
       </c>
-      <c r="P36" s="6"/>
+      <c r="P36" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37" s="5">
+        <v>118</v>
+      </c>
+      <c r="J37" s="6">
         <v>8</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M37" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O37" s="6">
         <v>1</v>
       </c>
-      <c r="P37" s="6"/>
+      <c r="P37" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="Q37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O38" s="6">
+        <v>26</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q36">
     <sortCondition ref="G2:G36"/>
     <sortCondition ref="H2:H36"/>
     <sortCondition ref="J2:J36"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3067,72 +3065,72 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -3141,46 +3139,46 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="6">
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -3189,142 +3187,142 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="6">
         <v>1</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" s="6">
         <v>1</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="6">
         <v>1</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>3</v>
@@ -3333,28 +3331,28 @@
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3377,81 +3375,81 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="6">
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>36</v>
@@ -3460,44 +3458,44 @@
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>38</v>
@@ -3506,44 +3504,44 @@
         <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>40</v>
@@ -3552,44 +3550,44 @@
         <v>39</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>42</v>
@@ -3598,44 +3596,44 @@
         <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>44</v>
@@ -3644,44 +3642,44 @@
         <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>46</v>
@@ -3690,44 +3688,44 @@
         <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="6">
         <v>3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>48</v>
@@ -3736,44 +3734,44 @@
         <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="6">
         <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>50</v>
@@ -3782,15 +3780,15 @@
         <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
